--- a/Mod. Fisico/Projeto-SP-Med-GROUP-LOGICO.xlsx
+++ b/Mod. Fisico/Projeto-SP-Med-GROUP-LOGICO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edecf5fcc30ee547/Área de Trabalho/Projeto-SP-Med-Group/Mod. Fisico/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Projeto-SP-Med-Group\Mod. Fisico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A2BA1E4B-E0AA-49E8-8DC3-F2B13AFC3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85DD1A66-4F74-49B5-8B75-88F29DEA0A0C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E3295C-CDE4-4015-AF39-79D9067F7C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{AAA3F5A0-E673-4D8A-ABFD-1090348D5D4B}"/>
+    <workbookView xWindow="1908" yWindow="1908" windowWidth="21600" windowHeight="11388" xr2:uid="{AAA3F5A0-E673-4D8A-ABFD-1090348D5D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -644,16 +644,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -978,32 +978,32 @@
   <dimension ref="B4:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="65.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="65.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1021,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="G6" s="3" t="s">
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1050,14 +1050,14 @@
       <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>1</v>
       </c>
@@ -1070,14 +1070,14 @@
       <c r="H8" s="4">
         <v>3</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>2</v>
       </c>
@@ -1090,14 +1090,14 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>3</v>
       </c>
@@ -1110,112 +1110,112 @@
       <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="G11" s="4">
         <v>5</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="G12" s="4">
         <v>6</v>
       </c>
       <c r="H12" s="4">
         <v>3</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="G13" s="4">
         <v>7</v>
       </c>
       <c r="H13" s="4">
         <v>3</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
       <c r="G14" s="4">
         <v>8</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="G15" s="4">
         <v>9</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
       <c r="G16" s="4">
         <v>10</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G17" s="4">
         <v>11</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1237,7 +1237,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>21</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <v>33</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <v>45</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <v>88</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <v>24</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <v>54</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>32</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
         <v>55</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="10">
         <v>1</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="10">
         <v>2</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <v>3</v>
       </c>
@@ -1533,14 +1533,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>75</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>56</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="13">
         <v>1</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I46" s="15">
         <v>2</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I47" s="15">
         <v>3</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D50" s="17" t="s">
         <v>88</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D51" s="16" t="s">
         <v>82</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D52" s="16">
         <v>1</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D53" s="16">
         <v>2</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D54" s="16">
         <v>3</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D55" s="16">
         <v>4</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D56" s="16">
         <v>5</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D57" s="16">
         <v>6</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D58" s="16">
         <v>7</v>
       </c>
@@ -1787,13 +1787,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="26" t="s">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="27"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="31"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="20" t="s">
         <v>57</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="22">
         <v>1</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="22">
         <v>2</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="22">
         <v>3</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="22">
         <v>4</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="22">
         <v>5</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="22">
         <v>6</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="22">
         <v>7</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="22">
         <v>8</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="22">
         <v>9</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="22">
         <v>10</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="22">
         <v>11</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="22">
         <v>12</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="22">
         <v>13</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="22">
         <v>14</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="22">
         <v>15</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="22">
         <v>16</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="24">
         <v>17</v>
       </c>
